--- a/src/analysis_examples/circadb/results_lomb/cosinor_10478778_arfgef2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10478778_arfgef2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.22175723532515823, 0.3579512146199917]</t>
+          <t>[0.22264454415652601, 0.3570639057886239]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.56705013409919e-08</v>
+        <v>1.257247572716835e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56705013409919e-08</v>
+        <v>1.257247572716835e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-1.01889491467777</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45293191031300245, 0.5233203007402962]</t>
+          <t>[0.4529064905896663, 0.5233457204636323]</t>
         </is>
       </c>
       <c r="U2" t="n">
